--- a/アプリケーション詳細設計書.xlsx
+++ b/アプリケーション詳細設計書.xlsx
@@ -12,18 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="96">
+  <si>
+    <t>HTTPメソッド</t>
+  </si>
   <si>
     <t>gem</t>
   </si>
   <si>
-    <t>HTTPメソッド</t>
+    <t>URL</t>
   </si>
   <si>
     <t>用途</t>
-  </si>
-  <si>
-    <t>URL</t>
   </si>
   <si>
     <t>コントローラ</t>
@@ -74,6 +74,9 @@
     <t>GET</t>
   </si>
   <si>
+    <t>cocoon</t>
+  </si>
+  <si>
     <t>/top</t>
   </si>
   <si>
@@ -93,6 +96,9 @@
   </si>
   <si>
     <t>ユーザーの新規登録画面を表示する</t>
+  </si>
+  <si>
+    <t>1対多のフォームを作成するため</t>
   </si>
   <si>
     <t>POST</t>
@@ -300,7 +306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -326,9 +332,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -350,8 +353,17 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="36">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFAAAAAA"/>
@@ -365,16 +377,14 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FFAAAAAA"/>
+        <color rgb="FF000000"/>
       </top>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFAAAAAA"/>
       </top>
     </border>
     <border>
@@ -383,6 +393,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
     </border>
     <border>
       <right style="thin">
@@ -394,14 +405,6 @@
       <bottom style="thin">
         <color rgb="FFAAAAAA"/>
       </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -439,17 +442,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFAAAAAA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFAAAAAA"/>
-      </right>
       <bottom style="thin">
         <color rgb="FFAAAAAA"/>
       </bottom>
@@ -511,6 +503,17 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
       <right style="thin">
         <color rgb="FFAAAAAA"/>
       </right>
@@ -747,21 +750,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FFAAAAAA"/>
-      </right>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -777,10 +770,10 @@
     <xf borderId="4" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -795,11 +788,11 @@
     <xf borderId="9" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -807,7 +800,7 @@
     <xf borderId="13" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -819,8 +812,11 @@
     <xf borderId="16" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -842,12 +838,6 @@
     </xf>
     <xf borderId="22" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom"/>
@@ -880,28 +870,19 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="30" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="31" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="32" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="33" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="34" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -909,23 +890,11 @@
     <xf borderId="35" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,76 +931,76 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
       <c r="X1" s="10"/>
-      <c r="Y1" s="12"/>
+      <c r="Y1" s="11"/>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
+      <c r="D2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
       <c r="X2" s="17"/>
       <c r="Y2" s="17"/>
     </row>
@@ -1040,18 +1009,18 @@
         <v>19</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="E3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1073,22 +1042,22 @@
       <c r="Y3" s="17"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="A4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="B4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="C4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1110,22 +1079,22 @@
       <c r="Y4" s="17"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="B5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="C5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1147,22 +1116,22 @@
       <c r="Y5" s="17"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="25" t="s">
+      <c r="A6" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="B6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="D6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1184,23 +1153,23 @@
       <c r="Y6" s="17"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="C7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="20"/>
+      <c r="D7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1221,22 +1190,22 @@
       <c r="Y7" s="17"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1258,22 +1227,22 @@
       <c r="Y8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="32" t="s">
+      <c r="A9" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="B9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1299,18 +1268,18 @@
         <v>19</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1332,22 +1301,22 @@
       <c r="Y10" s="17"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="25" t="s">
+      <c r="A11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="5"/>
+      <c r="B11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1369,22 +1338,22 @@
       <c r="Y11" s="17"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="5"/>
+      <c r="A12" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -1406,22 +1375,22 @@
       <c r="Y12" s="17"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="5"/>
+      <c r="C13" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1447,18 +1416,18 @@
         <v>19</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1480,22 +1449,22 @@
       <c r="Y14" s="17"/>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="5"/>
+      <c r="D15" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1517,23 +1486,23 @@
       <c r="Y15" s="17"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="41" t="s">
+      <c r="B16" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="42"/>
+      <c r="C16" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -1554,22 +1523,22 @@
       <c r="Y16" s="17"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="31" t="s">
+      <c r="A17" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="5"/>
+      <c r="D17" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1595,18 +1564,18 @@
         <v>19</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="6"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1628,22 +1597,22 @@
       <c r="Y18" s="17"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="5"/>
+      <c r="D19" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="6"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1669,18 +1638,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="6"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -1702,29 +1671,29 @@
       <c r="Y20" s="17"/>
     </row>
     <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="42"/>
+      <c r="D21" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="41"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -1737,30 +1706,24 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
     </row>
     <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="5"/>
+      <c r="B22" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="6"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -1782,22 +1745,22 @@
       <c r="Y22" s="17"/>
     </row>
     <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="5"/>
+      <c r="D23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="6"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -1819,22 +1782,22 @@
       <c r="Y23" s="17"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="5"/>
+      <c r="D24" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="6"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -1860,18 +1823,18 @@
         <v>19</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="6"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -1893,22 +1856,22 @@
       <c r="Y25" s="17"/>
     </row>
     <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="5"/>
+      <c r="B26" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -1930,22 +1893,22 @@
       <c r="Y26" s="17"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="5"/>
+      <c r="D27" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="6"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -1967,24 +1930,24 @@
       <c r="Y27" s="17"/>
     </row>
     <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="22" t="s">
+      <c r="A28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="5"/>
+      <c r="B28" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="6"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="43"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -2004,24 +1967,24 @@
       <c r="Y28" s="17"/>
     </row>
     <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="5"/>
+      <c r="B29" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="6"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="43"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -2041,22 +2004,22 @@
       <c r="Y29" s="17"/>
     </row>
     <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="5"/>
+      <c r="A30" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="6"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -2078,64 +2041,57 @@
       <c r="Y30" s="17"/>
     </row>
     <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="48" t="s">
+      <c r="B31" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="53"/>
-      <c r="AF31" s="53"/>
+      <c r="C31" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="46"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="43" t="s">
-        <v>91</v>
+      <c r="D32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -2159,20 +2115,20 @@
       <c r="Y32" s="17"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="C33" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>93</v>
+      <c r="D33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -2196,7 +2152,7 @@
       <c r="Y33" s="17"/>
     </row>
     <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="33"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -2223,7 +2179,7 @@
       <c r="Y34" s="17"/>
     </row>
     <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="33"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2250,7 +2206,7 @@
       <c r="Y35" s="17"/>
     </row>
     <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="33"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2277,7 +2233,7 @@
       <c r="Y36" s="17"/>
     </row>
     <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="33"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2304,7 +2260,7 @@
       <c r="Y37" s="17"/>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="33"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2331,7 +2287,7 @@
       <c r="Y38" s="17"/>
     </row>
     <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="33"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2358,7 +2314,7 @@
       <c r="Y39" s="17"/>
     </row>
     <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="33"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2385,7 +2341,7 @@
       <c r="Y40" s="17"/>
     </row>
     <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="33"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2412,7 +2368,7 @@
       <c r="Y41" s="17"/>
     </row>
     <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="33"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2439,7 +2395,7 @@
       <c r="Y42" s="17"/>
     </row>
     <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="33"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2466,7 +2422,7 @@
       <c r="Y43" s="17"/>
     </row>
     <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="33"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2493,7 +2449,7 @@
       <c r="Y44" s="17"/>
     </row>
     <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="33"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2520,7 +2476,7 @@
       <c r="Y45" s="17"/>
     </row>
     <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="33"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2547,7 +2503,7 @@
       <c r="Y46" s="17"/>
     </row>
     <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="33"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2574,7 +2530,7 @@
       <c r="Y47" s="17"/>
     </row>
     <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="33"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2601,7 +2557,7 @@
       <c r="Y48" s="17"/>
     </row>
     <row r="49" ht="13.5" customHeight="1">
-      <c r="A49" s="33"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2628,7 +2584,7 @@
       <c r="Y49" s="17"/>
     </row>
     <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" s="33"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2655,7 +2611,7 @@
       <c r="Y50" s="17"/>
     </row>
     <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="33"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2682,7 +2638,7 @@
       <c r="Y51" s="17"/>
     </row>
     <row r="52" ht="13.5" customHeight="1">
-      <c r="A52" s="33"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2709,7 +2665,7 @@
       <c r="Y52" s="17"/>
     </row>
     <row r="53" ht="13.5" customHeight="1">
-      <c r="A53" s="33"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2736,7 +2692,7 @@
       <c r="Y53" s="17"/>
     </row>
     <row r="54" ht="13.5" customHeight="1">
-      <c r="A54" s="33"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2763,7 +2719,7 @@
       <c r="Y54" s="17"/>
     </row>
     <row r="55" ht="13.5" customHeight="1">
-      <c r="A55" s="33"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2790,7 +2746,7 @@
       <c r="Y55" s="17"/>
     </row>
     <row r="56" ht="13.5" customHeight="1">
-      <c r="A56" s="33"/>
+      <c r="A56" s="32"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2817,7 +2773,7 @@
       <c r="Y56" s="17"/>
     </row>
     <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" s="33"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2844,7 +2800,7 @@
       <c r="Y57" s="17"/>
     </row>
     <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="33"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2871,7 +2827,7 @@
       <c r="Y58" s="17"/>
     </row>
     <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="33"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2898,7 +2854,7 @@
       <c r="Y59" s="17"/>
     </row>
     <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="33"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2925,7 +2881,7 @@
       <c r="Y60" s="17"/>
     </row>
     <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" s="33"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2952,7 +2908,7 @@
       <c r="Y61" s="17"/>
     </row>
     <row r="62" ht="13.5" customHeight="1">
-      <c r="A62" s="33"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2979,7 +2935,7 @@
       <c r="Y62" s="17"/>
     </row>
     <row r="63" ht="13.5" customHeight="1">
-      <c r="A63" s="33"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -3006,7 +2962,7 @@
       <c r="Y63" s="17"/>
     </row>
     <row r="64" ht="13.5" customHeight="1">
-      <c r="A64" s="33"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -3033,7 +2989,7 @@
       <c r="Y64" s="17"/>
     </row>
     <row r="65" ht="13.5" customHeight="1">
-      <c r="A65" s="33"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -3060,7 +3016,7 @@
       <c r="Y65" s="17"/>
     </row>
     <row r="66" ht="13.5" customHeight="1">
-      <c r="A66" s="33"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -3087,7 +3043,7 @@
       <c r="Y66" s="17"/>
     </row>
     <row r="67" ht="13.5" customHeight="1">
-      <c r="A67" s="33"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -3114,7 +3070,7 @@
       <c r="Y67" s="17"/>
     </row>
     <row r="68" ht="13.5" customHeight="1">
-      <c r="A68" s="33"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -3141,7 +3097,7 @@
       <c r="Y68" s="17"/>
     </row>
     <row r="69" ht="13.5" customHeight="1">
-      <c r="A69" s="33"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -3168,7 +3124,7 @@
       <c r="Y69" s="17"/>
     </row>
     <row r="70" ht="13.5" customHeight="1">
-      <c r="A70" s="33"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -3195,7 +3151,7 @@
       <c r="Y70" s="17"/>
     </row>
     <row r="71" ht="13.5" customHeight="1">
-      <c r="A71" s="33"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -3222,7 +3178,7 @@
       <c r="Y71" s="17"/>
     </row>
     <row r="72" ht="13.5" customHeight="1">
-      <c r="A72" s="33"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -3249,7 +3205,7 @@
       <c r="Y72" s="17"/>
     </row>
     <row r="73" ht="13.5" customHeight="1">
-      <c r="A73" s="33"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -3276,7 +3232,7 @@
       <c r="Y73" s="17"/>
     </row>
     <row r="74" ht="13.5" customHeight="1">
-      <c r="A74" s="33"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -3303,7 +3259,7 @@
       <c r="Y74" s="17"/>
     </row>
     <row r="75" ht="13.5" customHeight="1">
-      <c r="A75" s="33"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -3330,7 +3286,7 @@
       <c r="Y75" s="17"/>
     </row>
     <row r="76" ht="13.5" customHeight="1">
-      <c r="A76" s="33"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -3357,7 +3313,7 @@
       <c r="Y76" s="17"/>
     </row>
     <row r="77" ht="13.5" customHeight="1">
-      <c r="A77" s="33"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -3384,7 +3340,7 @@
       <c r="Y77" s="17"/>
     </row>
     <row r="78" ht="13.5" customHeight="1">
-      <c r="A78" s="33"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -3411,7 +3367,7 @@
       <c r="Y78" s="17"/>
     </row>
     <row r="79" ht="13.5" customHeight="1">
-      <c r="A79" s="33"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3438,7 +3394,7 @@
       <c r="Y79" s="17"/>
     </row>
     <row r="80" ht="13.5" customHeight="1">
-      <c r="A80" s="33"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3465,7 +3421,7 @@
       <c r="Y80" s="17"/>
     </row>
     <row r="81" ht="13.5" customHeight="1">
-      <c r="A81" s="33"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3492,7 +3448,7 @@
       <c r="Y81" s="17"/>
     </row>
     <row r="82" ht="13.5" customHeight="1">
-      <c r="A82" s="33"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3519,7 +3475,7 @@
       <c r="Y82" s="17"/>
     </row>
     <row r="83" ht="13.5" customHeight="1">
-      <c r="A83" s="33"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3546,7 +3502,7 @@
       <c r="Y83" s="17"/>
     </row>
     <row r="84" ht="13.5" customHeight="1">
-      <c r="A84" s="33"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3573,7 +3529,7 @@
       <c r="Y84" s="17"/>
     </row>
     <row r="85" ht="13.5" customHeight="1">
-      <c r="A85" s="33"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3600,7 +3556,7 @@
       <c r="Y85" s="17"/>
     </row>
     <row r="86" ht="13.5" customHeight="1">
-      <c r="A86" s="33"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3627,7 +3583,7 @@
       <c r="Y86" s="17"/>
     </row>
     <row r="87" ht="13.5" customHeight="1">
-      <c r="A87" s="33"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3654,7 +3610,7 @@
       <c r="Y87" s="17"/>
     </row>
     <row r="88" ht="13.5" customHeight="1">
-      <c r="A88" s="33"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3681,7 +3637,7 @@
       <c r="Y88" s="17"/>
     </row>
     <row r="89" ht="13.5" customHeight="1">
-      <c r="A89" s="33"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3708,7 +3664,7 @@
       <c r="Y89" s="17"/>
     </row>
     <row r="90" ht="13.5" customHeight="1">
-      <c r="A90" s="33"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3735,7 +3691,7 @@
       <c r="Y90" s="17"/>
     </row>
     <row r="91" ht="13.5" customHeight="1">
-      <c r="A91" s="33"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3762,7 +3718,7 @@
       <c r="Y91" s="17"/>
     </row>
     <row r="92" ht="13.5" customHeight="1">
-      <c r="A92" s="33"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3789,7 +3745,7 @@
       <c r="Y92" s="17"/>
     </row>
     <row r="93" ht="13.5" customHeight="1">
-      <c r="A93" s="33"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3816,7 +3772,7 @@
       <c r="Y93" s="17"/>
     </row>
     <row r="94" ht="13.5" customHeight="1">
-      <c r="A94" s="33"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3843,7 +3799,7 @@
       <c r="Y94" s="17"/>
     </row>
     <row r="95" ht="13.5" customHeight="1">
-      <c r="A95" s="33"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3870,7 +3826,7 @@
       <c r="Y95" s="17"/>
     </row>
     <row r="96" ht="13.5" customHeight="1">
-      <c r="A96" s="33"/>
+      <c r="A96" s="32"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3897,7 +3853,7 @@
       <c r="Y96" s="17"/>
     </row>
     <row r="97" ht="13.5" customHeight="1">
-      <c r="A97" s="33"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3924,7 +3880,7 @@
       <c r="Y97" s="17"/>
     </row>
     <row r="98" ht="13.5" customHeight="1">
-      <c r="A98" s="33"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3951,7 +3907,7 @@
       <c r="Y98" s="17"/>
     </row>
     <row r="99" ht="13.5" customHeight="1">
-      <c r="A99" s="33"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3978,7 +3934,7 @@
       <c r="Y99" s="17"/>
     </row>
     <row r="100" ht="13.5" customHeight="1">
-      <c r="A100" s="33"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -4005,7 +3961,7 @@
       <c r="Y100" s="17"/>
     </row>
     <row r="101" ht="13.5" customHeight="1">
-      <c r="A101" s="33"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -4032,7 +3988,7 @@
       <c r="Y101" s="17"/>
     </row>
     <row r="102" ht="13.5" customHeight="1">
-      <c r="A102" s="33"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -4059,7 +4015,7 @@
       <c r="Y102" s="17"/>
     </row>
     <row r="103" ht="13.5" customHeight="1">
-      <c r="A103" s="33"/>
+      <c r="A103" s="32"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -4086,7 +4042,7 @@
       <c r="Y103" s="17"/>
     </row>
     <row r="104" ht="13.5" customHeight="1">
-      <c r="A104" s="33"/>
+      <c r="A104" s="32"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -4113,7 +4069,7 @@
       <c r="Y104" s="17"/>
     </row>
     <row r="105" ht="13.5" customHeight="1">
-      <c r="A105" s="33"/>
+      <c r="A105" s="32"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -4140,7 +4096,7 @@
       <c r="Y105" s="17"/>
     </row>
     <row r="106" ht="13.5" customHeight="1">
-      <c r="A106" s="33"/>
+      <c r="A106" s="32"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -4167,7 +4123,7 @@
       <c r="Y106" s="17"/>
     </row>
     <row r="107" ht="13.5" customHeight="1">
-      <c r="A107" s="33"/>
+      <c r="A107" s="32"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -4194,7 +4150,7 @@
       <c r="Y107" s="17"/>
     </row>
     <row r="108" ht="13.5" customHeight="1">
-      <c r="A108" s="33"/>
+      <c r="A108" s="32"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -4221,7 +4177,7 @@
       <c r="Y108" s="17"/>
     </row>
     <row r="109" ht="13.5" customHeight="1">
-      <c r="A109" s="33"/>
+      <c r="A109" s="32"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -4248,7 +4204,7 @@
       <c r="Y109" s="17"/>
     </row>
     <row r="110" ht="13.5" customHeight="1">
-      <c r="A110" s="33"/>
+      <c r="A110" s="32"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -4275,7 +4231,7 @@
       <c r="Y110" s="17"/>
     </row>
     <row r="111" ht="13.5" customHeight="1">
-      <c r="A111" s="33"/>
+      <c r="A111" s="32"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -4302,7 +4258,7 @@
       <c r="Y111" s="17"/>
     </row>
     <row r="112" ht="13.5" customHeight="1">
-      <c r="A112" s="33"/>
+      <c r="A112" s="32"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -4329,7 +4285,7 @@
       <c r="Y112" s="17"/>
     </row>
     <row r="113" ht="13.5" customHeight="1">
-      <c r="A113" s="33"/>
+      <c r="A113" s="32"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -4356,7 +4312,7 @@
       <c r="Y113" s="17"/>
     </row>
     <row r="114" ht="13.5" customHeight="1">
-      <c r="A114" s="33"/>
+      <c r="A114" s="32"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -4383,7 +4339,7 @@
       <c r="Y114" s="17"/>
     </row>
     <row r="115" ht="13.5" customHeight="1">
-      <c r="A115" s="33"/>
+      <c r="A115" s="32"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -4410,7 +4366,7 @@
       <c r="Y115" s="17"/>
     </row>
     <row r="116" ht="13.5" customHeight="1">
-      <c r="A116" s="33"/>
+      <c r="A116" s="32"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4437,7 +4393,7 @@
       <c r="Y116" s="17"/>
     </row>
     <row r="117" ht="13.5" customHeight="1">
-      <c r="A117" s="33"/>
+      <c r="A117" s="32"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4464,7 +4420,7 @@
       <c r="Y117" s="17"/>
     </row>
     <row r="118" ht="13.5" customHeight="1">
-      <c r="A118" s="33"/>
+      <c r="A118" s="32"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4491,7 +4447,7 @@
       <c r="Y118" s="17"/>
     </row>
     <row r="119" ht="13.5" customHeight="1">
-      <c r="A119" s="33"/>
+      <c r="A119" s="32"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4518,7 +4474,7 @@
       <c r="Y119" s="17"/>
     </row>
     <row r="120" ht="13.5" customHeight="1">
-      <c r="A120" s="33"/>
+      <c r="A120" s="32"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4545,7 +4501,7 @@
       <c r="Y120" s="17"/>
     </row>
     <row r="121" ht="13.5" customHeight="1">
-      <c r="A121" s="33"/>
+      <c r="A121" s="32"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4572,7 +4528,7 @@
       <c r="Y121" s="17"/>
     </row>
     <row r="122" ht="13.5" customHeight="1">
-      <c r="A122" s="33"/>
+      <c r="A122" s="32"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4599,7 +4555,7 @@
       <c r="Y122" s="17"/>
     </row>
     <row r="123" ht="13.5" customHeight="1">
-      <c r="A123" s="33"/>
+      <c r="A123" s="32"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4626,7 +4582,7 @@
       <c r="Y123" s="17"/>
     </row>
     <row r="124" ht="13.5" customHeight="1">
-      <c r="A124" s="33"/>
+      <c r="A124" s="32"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4653,7 +4609,7 @@
       <c r="Y124" s="17"/>
     </row>
     <row r="125" ht="13.5" customHeight="1">
-      <c r="A125" s="33"/>
+      <c r="A125" s="32"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4680,7 +4636,7 @@
       <c r="Y125" s="17"/>
     </row>
     <row r="126" ht="13.5" customHeight="1">
-      <c r="A126" s="33"/>
+      <c r="A126" s="32"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4707,7 +4663,7 @@
       <c r="Y126" s="17"/>
     </row>
     <row r="127" ht="13.5" customHeight="1">
-      <c r="A127" s="33"/>
+      <c r="A127" s="32"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4734,7 +4690,7 @@
       <c r="Y127" s="17"/>
     </row>
     <row r="128" ht="13.5" customHeight="1">
-      <c r="A128" s="33"/>
+      <c r="A128" s="32"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4761,7 +4717,7 @@
       <c r="Y128" s="17"/>
     </row>
     <row r="129" ht="13.5" customHeight="1">
-      <c r="A129" s="33"/>
+      <c r="A129" s="32"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4788,7 +4744,7 @@
       <c r="Y129" s="17"/>
     </row>
     <row r="130" ht="13.5" customHeight="1">
-      <c r="A130" s="33"/>
+      <c r="A130" s="32"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4815,7 +4771,7 @@
       <c r="Y130" s="17"/>
     </row>
     <row r="131" ht="13.5" customHeight="1">
-      <c r="A131" s="33"/>
+      <c r="A131" s="32"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4842,7 +4798,7 @@
       <c r="Y131" s="17"/>
     </row>
     <row r="132" ht="13.5" customHeight="1">
-      <c r="A132" s="33"/>
+      <c r="A132" s="32"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4869,7 +4825,7 @@
       <c r="Y132" s="17"/>
     </row>
     <row r="133" ht="13.5" customHeight="1">
-      <c r="A133" s="33"/>
+      <c r="A133" s="32"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4896,7 +4852,7 @@
       <c r="Y133" s="17"/>
     </row>
     <row r="134" ht="13.5" customHeight="1">
-      <c r="A134" s="33"/>
+      <c r="A134" s="32"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4923,7 +4879,7 @@
       <c r="Y134" s="17"/>
     </row>
     <row r="135" ht="13.5" customHeight="1">
-      <c r="A135" s="33"/>
+      <c r="A135" s="32"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4950,7 +4906,7 @@
       <c r="Y135" s="17"/>
     </row>
     <row r="136" ht="13.5" customHeight="1">
-      <c r="A136" s="33"/>
+      <c r="A136" s="32"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4977,7 +4933,7 @@
       <c r="Y136" s="17"/>
     </row>
     <row r="137" ht="13.5" customHeight="1">
-      <c r="A137" s="33"/>
+      <c r="A137" s="32"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -5004,7 +4960,7 @@
       <c r="Y137" s="17"/>
     </row>
     <row r="138" ht="13.5" customHeight="1">
-      <c r="A138" s="33"/>
+      <c r="A138" s="32"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -5031,7 +4987,7 @@
       <c r="Y138" s="17"/>
     </row>
     <row r="139" ht="13.5" customHeight="1">
-      <c r="A139" s="33"/>
+      <c r="A139" s="32"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -5058,7 +5014,7 @@
       <c r="Y139" s="17"/>
     </row>
     <row r="140" ht="13.5" customHeight="1">
-      <c r="A140" s="33"/>
+      <c r="A140" s="32"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -5085,7 +5041,7 @@
       <c r="Y140" s="17"/>
     </row>
     <row r="141" ht="13.5" customHeight="1">
-      <c r="A141" s="33"/>
+      <c r="A141" s="32"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -5112,7 +5068,7 @@
       <c r="Y141" s="17"/>
     </row>
     <row r="142" ht="13.5" customHeight="1">
-      <c r="A142" s="33"/>
+      <c r="A142" s="32"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -5139,7 +5095,7 @@
       <c r="Y142" s="17"/>
     </row>
     <row r="143" ht="13.5" customHeight="1">
-      <c r="A143" s="33"/>
+      <c r="A143" s="32"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -5166,7 +5122,7 @@
       <c r="Y143" s="17"/>
     </row>
     <row r="144" ht="13.5" customHeight="1">
-      <c r="A144" s="33"/>
+      <c r="A144" s="32"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -5193,7 +5149,7 @@
       <c r="Y144" s="17"/>
     </row>
     <row r="145" ht="13.5" customHeight="1">
-      <c r="A145" s="33"/>
+      <c r="A145" s="32"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
@@ -5220,7 +5176,7 @@
       <c r="Y145" s="17"/>
     </row>
     <row r="146" ht="13.5" customHeight="1">
-      <c r="A146" s="33"/>
+      <c r="A146" s="32"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
@@ -5247,7 +5203,7 @@
       <c r="Y146" s="17"/>
     </row>
     <row r="147" ht="13.5" customHeight="1">
-      <c r="A147" s="33"/>
+      <c r="A147" s="32"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
@@ -5274,7 +5230,7 @@
       <c r="Y147" s="17"/>
     </row>
     <row r="148" ht="13.5" customHeight="1">
-      <c r="A148" s="33"/>
+      <c r="A148" s="32"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
@@ -5301,7 +5257,7 @@
       <c r="Y148" s="17"/>
     </row>
     <row r="149" ht="13.5" customHeight="1">
-      <c r="A149" s="33"/>
+      <c r="A149" s="32"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
@@ -5328,7 +5284,7 @@
       <c r="Y149" s="17"/>
     </row>
     <row r="150" ht="13.5" customHeight="1">
-      <c r="A150" s="33"/>
+      <c r="A150" s="32"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
@@ -5355,7 +5311,7 @@
       <c r="Y150" s="17"/>
     </row>
     <row r="151" ht="13.5" customHeight="1">
-      <c r="A151" s="33"/>
+      <c r="A151" s="32"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
@@ -5382,7 +5338,7 @@
       <c r="Y151" s="17"/>
     </row>
     <row r="152" ht="13.5" customHeight="1">
-      <c r="A152" s="33"/>
+      <c r="A152" s="32"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
@@ -5409,7 +5365,7 @@
       <c r="Y152" s="17"/>
     </row>
     <row r="153" ht="13.5" customHeight="1">
-      <c r="A153" s="33"/>
+      <c r="A153" s="32"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
@@ -5436,7 +5392,7 @@
       <c r="Y153" s="17"/>
     </row>
     <row r="154" ht="13.5" customHeight="1">
-      <c r="A154" s="33"/>
+      <c r="A154" s="32"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
@@ -5463,7 +5419,7 @@
       <c r="Y154" s="17"/>
     </row>
     <row r="155" ht="13.5" customHeight="1">
-      <c r="A155" s="33"/>
+      <c r="A155" s="32"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
@@ -5490,7 +5446,7 @@
       <c r="Y155" s="17"/>
     </row>
     <row r="156" ht="13.5" customHeight="1">
-      <c r="A156" s="33"/>
+      <c r="A156" s="32"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
@@ -5517,7 +5473,7 @@
       <c r="Y156" s="17"/>
     </row>
     <row r="157" ht="13.5" customHeight="1">
-      <c r="A157" s="33"/>
+      <c r="A157" s="32"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
@@ -5544,7 +5500,7 @@
       <c r="Y157" s="17"/>
     </row>
     <row r="158" ht="13.5" customHeight="1">
-      <c r="A158" s="33"/>
+      <c r="A158" s="32"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
@@ -5571,7 +5527,7 @@
       <c r="Y158" s="17"/>
     </row>
     <row r="159" ht="13.5" customHeight="1">
-      <c r="A159" s="33"/>
+      <c r="A159" s="32"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
@@ -5598,7 +5554,7 @@
       <c r="Y159" s="17"/>
     </row>
     <row r="160" ht="13.5" customHeight="1">
-      <c r="A160" s="33"/>
+      <c r="A160" s="32"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
@@ -5625,7 +5581,7 @@
       <c r="Y160" s="17"/>
     </row>
     <row r="161" ht="13.5" customHeight="1">
-      <c r="A161" s="33"/>
+      <c r="A161" s="32"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
@@ -5652,7 +5608,7 @@
       <c r="Y161" s="17"/>
     </row>
     <row r="162" ht="13.5" customHeight="1">
-      <c r="A162" s="33"/>
+      <c r="A162" s="32"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
@@ -5679,7 +5635,7 @@
       <c r="Y162" s="17"/>
     </row>
     <row r="163" ht="13.5" customHeight="1">
-      <c r="A163" s="33"/>
+      <c r="A163" s="32"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
@@ -5706,7 +5662,7 @@
       <c r="Y163" s="17"/>
     </row>
     <row r="164" ht="13.5" customHeight="1">
-      <c r="A164" s="33"/>
+      <c r="A164" s="32"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
@@ -5733,7 +5689,7 @@
       <c r="Y164" s="17"/>
     </row>
     <row r="165" ht="13.5" customHeight="1">
-      <c r="A165" s="33"/>
+      <c r="A165" s="32"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
@@ -5760,7 +5716,7 @@
       <c r="Y165" s="17"/>
     </row>
     <row r="166" ht="13.5" customHeight="1">
-      <c r="A166" s="33"/>
+      <c r="A166" s="32"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
@@ -5787,7 +5743,7 @@
       <c r="Y166" s="17"/>
     </row>
     <row r="167" ht="13.5" customHeight="1">
-      <c r="A167" s="33"/>
+      <c r="A167" s="32"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
@@ -5814,7 +5770,7 @@
       <c r="Y167" s="17"/>
     </row>
     <row r="168" ht="13.5" customHeight="1">
-      <c r="A168" s="33"/>
+      <c r="A168" s="32"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
@@ -5841,7 +5797,7 @@
       <c r="Y168" s="17"/>
     </row>
     <row r="169" ht="13.5" customHeight="1">
-      <c r="A169" s="33"/>
+      <c r="A169" s="32"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
@@ -5868,7 +5824,7 @@
       <c r="Y169" s="17"/>
     </row>
     <row r="170" ht="13.5" customHeight="1">
-      <c r="A170" s="33"/>
+      <c r="A170" s="32"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
@@ -5895,7 +5851,7 @@
       <c r="Y170" s="17"/>
     </row>
     <row r="171" ht="13.5" customHeight="1">
-      <c r="A171" s="33"/>
+      <c r="A171" s="32"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
@@ -5922,7 +5878,7 @@
       <c r="Y171" s="17"/>
     </row>
     <row r="172" ht="13.5" customHeight="1">
-      <c r="A172" s="33"/>
+      <c r="A172" s="32"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
@@ -5949,7 +5905,7 @@
       <c r="Y172" s="17"/>
     </row>
     <row r="173" ht="13.5" customHeight="1">
-      <c r="A173" s="33"/>
+      <c r="A173" s="32"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
@@ -5976,7 +5932,7 @@
       <c r="Y173" s="17"/>
     </row>
     <row r="174" ht="13.5" customHeight="1">
-      <c r="A174" s="33"/>
+      <c r="A174" s="32"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
@@ -6003,7 +5959,7 @@
       <c r="Y174" s="17"/>
     </row>
     <row r="175" ht="13.5" customHeight="1">
-      <c r="A175" s="33"/>
+      <c r="A175" s="32"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
@@ -6030,7 +5986,7 @@
       <c r="Y175" s="17"/>
     </row>
     <row r="176" ht="13.5" customHeight="1">
-      <c r="A176" s="33"/>
+      <c r="A176" s="32"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
@@ -6057,7 +6013,7 @@
       <c r="Y176" s="17"/>
     </row>
     <row r="177" ht="13.5" customHeight="1">
-      <c r="A177" s="33"/>
+      <c r="A177" s="32"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
@@ -6084,7 +6040,7 @@
       <c r="Y177" s="17"/>
     </row>
     <row r="178" ht="13.5" customHeight="1">
-      <c r="A178" s="33"/>
+      <c r="A178" s="32"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
@@ -6111,7 +6067,7 @@
       <c r="Y178" s="17"/>
     </row>
     <row r="179" ht="13.5" customHeight="1">
-      <c r="A179" s="33"/>
+      <c r="A179" s="32"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
@@ -6138,7 +6094,7 @@
       <c r="Y179" s="17"/>
     </row>
     <row r="180" ht="13.5" customHeight="1">
-      <c r="A180" s="33"/>
+      <c r="A180" s="32"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
@@ -6165,7 +6121,7 @@
       <c r="Y180" s="17"/>
     </row>
     <row r="181" ht="13.5" customHeight="1">
-      <c r="A181" s="33"/>
+      <c r="A181" s="32"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -6192,7 +6148,7 @@
       <c r="Y181" s="17"/>
     </row>
     <row r="182" ht="13.5" customHeight="1">
-      <c r="A182" s="33"/>
+      <c r="A182" s="32"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
@@ -6219,7 +6175,7 @@
       <c r="Y182" s="17"/>
     </row>
     <row r="183" ht="13.5" customHeight="1">
-      <c r="A183" s="33"/>
+      <c r="A183" s="32"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
@@ -6246,7 +6202,7 @@
       <c r="Y183" s="17"/>
     </row>
     <row r="184" ht="13.5" customHeight="1">
-      <c r="A184" s="33"/>
+      <c r="A184" s="32"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
@@ -6273,7 +6229,7 @@
       <c r="Y184" s="17"/>
     </row>
     <row r="185" ht="13.5" customHeight="1">
-      <c r="A185" s="33"/>
+      <c r="A185" s="32"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
@@ -6300,7 +6256,7 @@
       <c r="Y185" s="17"/>
     </row>
     <row r="186" ht="13.5" customHeight="1">
-      <c r="A186" s="33"/>
+      <c r="A186" s="32"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
@@ -6327,7 +6283,7 @@
       <c r="Y186" s="17"/>
     </row>
     <row r="187" ht="13.5" customHeight="1">
-      <c r="A187" s="33"/>
+      <c r="A187" s="32"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
@@ -6354,7 +6310,7 @@
       <c r="Y187" s="17"/>
     </row>
     <row r="188" ht="13.5" customHeight="1">
-      <c r="A188" s="33"/>
+      <c r="A188" s="32"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
@@ -6381,7 +6337,7 @@
       <c r="Y188" s="17"/>
     </row>
     <row r="189" ht="13.5" customHeight="1">
-      <c r="A189" s="33"/>
+      <c r="A189" s="32"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
@@ -6408,7 +6364,7 @@
       <c r="Y189" s="17"/>
     </row>
     <row r="190" ht="13.5" customHeight="1">
-      <c r="A190" s="33"/>
+      <c r="A190" s="32"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
@@ -6435,7 +6391,7 @@
       <c r="Y190" s="17"/>
     </row>
     <row r="191" ht="13.5" customHeight="1">
-      <c r="A191" s="33"/>
+      <c r="A191" s="32"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
@@ -6462,7 +6418,7 @@
       <c r="Y191" s="17"/>
     </row>
     <row r="192" ht="13.5" customHeight="1">
-      <c r="A192" s="33"/>
+      <c r="A192" s="32"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
@@ -6489,7 +6445,7 @@
       <c r="Y192" s="17"/>
     </row>
     <row r="193" ht="13.5" customHeight="1">
-      <c r="A193" s="33"/>
+      <c r="A193" s="32"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
@@ -6516,7 +6472,7 @@
       <c r="Y193" s="17"/>
     </row>
     <row r="194" ht="13.5" customHeight="1">
-      <c r="A194" s="33"/>
+      <c r="A194" s="32"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
@@ -6543,7 +6499,7 @@
       <c r="Y194" s="17"/>
     </row>
     <row r="195" ht="13.5" customHeight="1">
-      <c r="A195" s="33"/>
+      <c r="A195" s="32"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
@@ -6570,7 +6526,7 @@
       <c r="Y195" s="17"/>
     </row>
     <row r="196" ht="13.5" customHeight="1">
-      <c r="A196" s="33"/>
+      <c r="A196" s="32"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
@@ -6597,7 +6553,7 @@
       <c r="Y196" s="17"/>
     </row>
     <row r="197" ht="13.5" customHeight="1">
-      <c r="A197" s="33"/>
+      <c r="A197" s="32"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
@@ -6624,7 +6580,7 @@
       <c r="Y197" s="17"/>
     </row>
     <row r="198" ht="13.5" customHeight="1">
-      <c r="A198" s="33"/>
+      <c r="A198" s="32"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
@@ -6651,7 +6607,7 @@
       <c r="Y198" s="17"/>
     </row>
     <row r="199" ht="13.5" customHeight="1">
-      <c r="A199" s="33"/>
+      <c r="A199" s="32"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
@@ -6678,7 +6634,7 @@
       <c r="Y199" s="17"/>
     </row>
     <row r="200" ht="13.5" customHeight="1">
-      <c r="A200" s="33"/>
+      <c r="A200" s="32"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
@@ -6705,7 +6661,7 @@
       <c r="Y200" s="17"/>
     </row>
     <row r="201" ht="13.5" customHeight="1">
-      <c r="A201" s="33"/>
+      <c r="A201" s="32"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
@@ -6732,7 +6688,7 @@
       <c r="Y201" s="17"/>
     </row>
     <row r="202" ht="13.5" customHeight="1">
-      <c r="A202" s="33"/>
+      <c r="A202" s="32"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
@@ -6759,7 +6715,7 @@
       <c r="Y202" s="17"/>
     </row>
     <row r="203" ht="13.5" customHeight="1">
-      <c r="A203" s="33"/>
+      <c r="A203" s="32"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
@@ -6786,7 +6742,7 @@
       <c r="Y203" s="17"/>
     </row>
     <row r="204" ht="13.5" customHeight="1">
-      <c r="A204" s="33"/>
+      <c r="A204" s="32"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
@@ -6813,7 +6769,7 @@
       <c r="Y204" s="17"/>
     </row>
     <row r="205" ht="13.5" customHeight="1">
-      <c r="A205" s="33"/>
+      <c r="A205" s="32"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
@@ -6840,7 +6796,7 @@
       <c r="Y205" s="17"/>
     </row>
     <row r="206" ht="13.5" customHeight="1">
-      <c r="A206" s="33"/>
+      <c r="A206" s="32"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
@@ -6867,7 +6823,7 @@
       <c r="Y206" s="17"/>
     </row>
     <row r="207" ht="13.5" customHeight="1">
-      <c r="A207" s="33"/>
+      <c r="A207" s="32"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
@@ -6894,7 +6850,7 @@
       <c r="Y207" s="17"/>
     </row>
     <row r="208" ht="13.5" customHeight="1">
-      <c r="A208" s="33"/>
+      <c r="A208" s="32"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
@@ -6921,7 +6877,7 @@
       <c r="Y208" s="17"/>
     </row>
     <row r="209" ht="13.5" customHeight="1">
-      <c r="A209" s="33"/>
+      <c r="A209" s="32"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
@@ -6948,7 +6904,7 @@
       <c r="Y209" s="17"/>
     </row>
     <row r="210" ht="13.5" customHeight="1">
-      <c r="A210" s="33"/>
+      <c r="A210" s="32"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
@@ -6975,7 +6931,7 @@
       <c r="Y210" s="17"/>
     </row>
     <row r="211" ht="13.5" customHeight="1">
-      <c r="A211" s="33"/>
+      <c r="A211" s="32"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
@@ -7002,7 +6958,7 @@
       <c r="Y211" s="17"/>
     </row>
     <row r="212" ht="13.5" customHeight="1">
-      <c r="A212" s="33"/>
+      <c r="A212" s="32"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
@@ -7029,7 +6985,7 @@
       <c r="Y212" s="17"/>
     </row>
     <row r="213" ht="13.5" customHeight="1">
-      <c r="A213" s="33"/>
+      <c r="A213" s="32"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
@@ -7056,7 +7012,7 @@
       <c r="Y213" s="17"/>
     </row>
     <row r="214" ht="13.5" customHeight="1">
-      <c r="A214" s="33"/>
+      <c r="A214" s="32"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
@@ -7083,7 +7039,7 @@
       <c r="Y214" s="17"/>
     </row>
     <row r="215" ht="13.5" customHeight="1">
-      <c r="A215" s="33"/>
+      <c r="A215" s="32"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
@@ -7110,7 +7066,7 @@
       <c r="Y215" s="17"/>
     </row>
     <row r="216" ht="13.5" customHeight="1">
-      <c r="A216" s="33"/>
+      <c r="A216" s="32"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
@@ -7137,7 +7093,7 @@
       <c r="Y216" s="17"/>
     </row>
     <row r="217" ht="13.5" customHeight="1">
-      <c r="A217" s="33"/>
+      <c r="A217" s="32"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
@@ -7164,7 +7120,7 @@
       <c r="Y217" s="17"/>
     </row>
     <row r="218" ht="13.5" customHeight="1">
-      <c r="A218" s="33"/>
+      <c r="A218" s="32"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
@@ -7191,7 +7147,7 @@
       <c r="Y218" s="17"/>
     </row>
     <row r="219" ht="13.5" customHeight="1">
-      <c r="A219" s="33"/>
+      <c r="A219" s="32"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
@@ -7218,7 +7174,7 @@
       <c r="Y219" s="17"/>
     </row>
     <row r="220" ht="13.5" customHeight="1">
-      <c r="A220" s="33"/>
+      <c r="A220" s="32"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
@@ -7245,7 +7201,7 @@
       <c r="Y220" s="17"/>
     </row>
     <row r="221" ht="13.5" customHeight="1">
-      <c r="A221" s="33"/>
+      <c r="A221" s="32"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
@@ -7272,7 +7228,7 @@
       <c r="Y221" s="17"/>
     </row>
     <row r="222" ht="13.5" customHeight="1">
-      <c r="A222" s="33"/>
+      <c r="A222" s="32"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
@@ -7299,7 +7255,7 @@
       <c r="Y222" s="17"/>
     </row>
     <row r="223" ht="13.5" customHeight="1">
-      <c r="A223" s="33"/>
+      <c r="A223" s="32"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
@@ -7326,7 +7282,7 @@
       <c r="Y223" s="17"/>
     </row>
     <row r="224" ht="13.5" customHeight="1">
-      <c r="A224" s="33"/>
+      <c r="A224" s="32"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
@@ -7353,7 +7309,7 @@
       <c r="Y224" s="17"/>
     </row>
     <row r="225" ht="13.5" customHeight="1">
-      <c r="A225" s="33"/>
+      <c r="A225" s="32"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
@@ -7380,7 +7336,7 @@
       <c r="Y225" s="17"/>
     </row>
     <row r="226" ht="13.5" customHeight="1">
-      <c r="A226" s="33"/>
+      <c r="A226" s="32"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
@@ -7407,7 +7363,7 @@
       <c r="Y226" s="17"/>
     </row>
     <row r="227" ht="13.5" customHeight="1">
-      <c r="A227" s="33"/>
+      <c r="A227" s="32"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
@@ -7434,7 +7390,7 @@
       <c r="Y227" s="17"/>
     </row>
     <row r="228" ht="13.5" customHeight="1">
-      <c r="A228" s="33"/>
+      <c r="A228" s="32"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
@@ -7461,7 +7417,7 @@
       <c r="Y228" s="17"/>
     </row>
     <row r="229" ht="13.5" customHeight="1">
-      <c r="A229" s="33"/>
+      <c r="A229" s="32"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
@@ -7488,7 +7444,7 @@
       <c r="Y229" s="17"/>
     </row>
     <row r="230" ht="13.5" customHeight="1">
-      <c r="A230" s="33"/>
+      <c r="A230" s="32"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
@@ -8284,7 +8240,6 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.0"/>
@@ -8312,13 +8267,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5"/>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -8346,7 +8301,7 @@
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
@@ -8374,7 +8329,7 @@
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
@@ -8402,7 +8357,7 @@
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
@@ -8430,7 +8385,7 @@
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
@@ -8458,7 +8413,7 @@
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
@@ -8486,7 +8441,7 @@
       <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
@@ -8508,8 +8463,12 @@
       <c r="V7" s="8"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
